--- a/energies.xlsx
+++ b/energies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>pentane 1</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Grel</t>
+  </si>
+  <si>
+    <t>Srel</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -374,15 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -404,8 +410,14 @@
       <c r="M1" t="s">
         <v>10</v>
       </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -431,8 +443,15 @@
         <f xml:space="preserve"> K2 - $K$2</f>
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>0.106416</v>
+      </c>
+      <c r="Q2">
+        <f>(O2 - $O$2)*627.509</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -458,8 +477,15 @@
         <f t="shared" ref="M3:M5" si="3" xml:space="preserve"> K3 - $K$2</f>
         <v>0.91302559500000058</v>
       </c>
+      <c r="O3">
+        <v>0.107414</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q5" si="4">(O3 - $O$2)*627.509</f>
+        <v>0.62625398199999927</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -485,8 +511,15 @@
         <f t="shared" si="3"/>
         <v>1.722512205000001</v>
       </c>
+      <c r="O4">
+        <v>0.108532</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>1.3278090440000043</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -511,6 +544,13 @@
       <c r="M5">
         <f t="shared" si="3"/>
         <v>3.3496430419999967</v>
+      </c>
+      <c r="O5">
+        <v>0.109805</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>2.126628001000002</v>
       </c>
     </row>
   </sheetData>
